--- a/Crosswalks/EVeg Classifications 5-22-2013.xlsx
+++ b/Crosswalks/EVeg Classifications 5-22-2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegDom Type Key" sheetId="19" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="752">
   <si>
     <t>PFR</t>
   </si>
@@ -2713,6 +2713,10 @@
   <si>
     <t>RD1 = DF, RD2 = QT (global)
 Else</t>
+  </si>
+  <si>
+    <t>RD1 = EP, JP, PP AND RD2 != QK, Canyon Live Oak, Huckleberry Oak, Madrone, Montane Mixed Hardwood, Scrub Oak, Tanoak (Madrone) AND Eastside
+RD1 = Black Oak OR RD1 = EP, JP, PP AND RD2 = QK, Canyon Live Oak, Huckleberry Oak, Madrone, Montane Mixed Hardwood, Scrub Oak, Tanoak (Madrone)</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2786,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1161">
+  <cellStyleXfs count="1179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4053,7 +4075,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1161">
+  <cellStyles count="1179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4634,6 +4656,15 @@
     <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5214,6 +5245,15 @@
     <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5553,8 +5593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7475,10 +7515,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8069,7 +8109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8891,7 +8931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -11770,8 +11810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12210,7 +12250,7 @@
         <v>45</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>651</v>
+        <v>751</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>652</v>
